--- a/Xen Jakaria/Regulator_Drafting_programme/Chadnumukha_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chadnumukha_input.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="288">
   <si>
     <t>Q</t>
   </si>
@@ -718,15 +718,15 @@
     <t>ODS-R1</t>
   </si>
   <si>
+    <t>d10</t>
+  </si>
+  <si>
+    <t>ODS-R2</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
-    <t>d10</t>
-  </si>
-  <si>
-    <t>ODS-R2</t>
-  </si>
-  <si>
     <t>ODS-R3</t>
   </si>
   <si>
@@ -874,7 +874,7 @@
     <t>t_design_metric</t>
   </si>
   <si>
-    <t>Aprovided</t>
+    <t>Aprovided(in^2)</t>
   </si>
   <si>
     <t>spacings(inch)</t>
@@ -893,6 +893,12 @@
   </si>
   <si>
     <t>d10 @ 100.0 mm c/c</t>
+  </si>
+  <si>
+    <t>d10 @ 3.5 inch c/c</t>
+  </si>
+  <si>
+    <t>d10 @ 85.0 mm c/c</t>
   </si>
 </sst>
 </file>
@@ -1334,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,7 +1505,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -2540,7 +2546,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2606,16 +2612,16 @@
         <v>226</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>23198</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>3254</v>
       </c>
       <c r="H2" s="3">
         <v>3000</v>
@@ -2624,16 +2630,16 @@
         <v>60000</v>
       </c>
       <c r="J2" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K2" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2644,10 +2650,10 @@
         <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -2674,7 +2680,7 @@
         <v>3.5</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2688,7 +2694,7 @@
         <v>230</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -2715,7 +2721,7 @@
         <v>3.5</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2729,7 +2735,7 @@
         <v>231</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -2756,7 +2762,7 @@
         <v>3.5</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2770,7 +2776,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -2797,7 +2803,7 @@
         <v>3.5</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2811,7 +2817,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -2838,7 +2844,7 @@
         <v>3.5</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2852,7 +2858,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2879,7 +2885,7 @@
         <v>3.5</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2893,7 +2899,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2920,7 +2926,7 @@
         <v>3.5</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2934,7 +2940,7 @@
         <v>240</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -2961,7 +2967,7 @@
         <v>3.5</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2975,7 +2981,7 @@
         <v>241</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -3002,7 +3008,7 @@
         <v>3.5</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3016,7 +3022,7 @@
         <v>242</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -3043,7 +3049,7 @@
         <v>3.5</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3057,7 +3063,7 @@
         <v>243</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -3084,7 +3090,7 @@
         <v>3.5</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3098,7 +3104,7 @@
         <v>246</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -3125,7 +3131,7 @@
         <v>3.5</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3139,7 +3145,7 @@
         <v>247</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -3166,7 +3172,7 @@
         <v>3.5</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3180,7 +3186,7 @@
         <v>248</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -3207,7 +3213,7 @@
         <v>3.5</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3221,7 +3227,7 @@
         <v>249</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -3248,7 +3254,7 @@
         <v>3.5</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3262,7 +3268,7 @@
         <v>252</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -3289,7 +3295,7 @@
         <v>3.5</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3303,7 +3309,7 @@
         <v>253</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -3330,7 +3336,7 @@
         <v>3.5</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3344,7 +3350,7 @@
         <v>254</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -3371,7 +3377,7 @@
         <v>3.5</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3385,7 +3391,7 @@
         <v>255</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -3412,7 +3418,7 @@
         <v>3.5</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3426,7 +3432,7 @@
         <v>256</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -3453,7 +3459,7 @@
         <v>3.5</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3467,7 +3473,7 @@
         <v>257</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -3494,7 +3500,7 @@
         <v>3.5</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3508,7 +3514,7 @@
         <v>258</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -3535,7 +3541,7 @@
         <v>3.5</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3549,7 +3555,7 @@
         <v>261</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -3576,7 +3582,7 @@
         <v>3.5</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3590,7 +3596,7 @@
         <v>262</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3617,7 +3623,7 @@
         <v>3.5</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3631,7 +3637,7 @@
         <v>263</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -3658,7 +3664,7 @@
         <v>3.5</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3672,7 +3678,7 @@
         <v>264</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -3699,7 +3705,7 @@
         <v>3.5</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3713,7 +3719,7 @@
         <v>265</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -3740,7 +3746,7 @@
         <v>3.5</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3754,7 +3760,7 @@
         <v>266</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3781,7 +3787,7 @@
         <v>3.5</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3795,7 +3801,7 @@
         <v>267</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -3822,7 +3828,7 @@
         <v>3.5</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3836,7 +3842,7 @@
         <v>270</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -3863,7 +3869,7 @@
         <v>3.5</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3877,7 +3883,7 @@
         <v>271</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -3904,7 +3910,7 @@
         <v>3.5</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3918,7 +3924,7 @@
         <v>272</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -3945,7 +3951,7 @@
         <v>3.5</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3959,7 +3965,7 @@
         <v>273</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3986,7 +3992,7 @@
         <v>3.5</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4000,7 +4006,7 @@
         <v>274</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -4027,7 +4033,7 @@
         <v>3.5</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4041,7 +4047,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -4068,7 +4074,7 @@
         <v>3.5</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4082,7 +4088,7 @@
         <v>276</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -4109,7 +4115,7 @@
         <v>3.5</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +4129,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4135,11 +4141,11 @@
     <col min="5" max="5" width="9.77734375" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="2" customWidth="1"/>
     <col min="17" max="17" width="20.109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="30.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="38.33203125" customWidth="1"/>
+    <col min="20" max="20" width="38.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -4215,16 +4221,16 @@
         <v>226</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>23198</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>3254</v>
       </c>
       <c r="H2" s="3">
         <v>3000</v>
@@ -4233,25 +4239,25 @@
         <v>60000</v>
       </c>
       <c r="J2" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K2" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="M2" s="20">
-        <v>16</v>
-      </c>
-      <c r="N2">
-        <v>400</v>
-      </c>
-      <c r="O2" t="s">
-        <v>228</v>
+        <v>10.55</v>
+      </c>
+      <c r="N2" s="1">
+        <v>265</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P2">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="Q2" s="1">
         <v>4</v>
@@ -4274,16 +4280,16 @@
         <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>16400</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -4306,26 +4312,26 @@
       <c r="M3" s="20">
         <v>16</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>400</v>
       </c>
-      <c r="O3" t="s">
-        <v>228</v>
+      <c r="O3" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P3">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q3" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S3" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4339,7 +4345,7 @@
         <v>230</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -4368,26 +4374,26 @@
       <c r="M4" s="20">
         <v>16</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>400</v>
       </c>
-      <c r="O4" t="s">
-        <v>228</v>
+      <c r="O4" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P4">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q4" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S4" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4401,7 +4407,7 @@
         <v>231</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -4430,26 +4436,26 @@
       <c r="M5" s="20">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>400</v>
       </c>
-      <c r="O5" t="s">
-        <v>228</v>
+      <c r="O5" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P5">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q5" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S5" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4463,7 +4469,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -4492,26 +4498,26 @@
       <c r="M6" s="20">
         <v>16</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>400</v>
       </c>
-      <c r="O6" t="s">
-        <v>228</v>
+      <c r="O6" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P6">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q6" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S6" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4525,7 +4531,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -4554,26 +4560,26 @@
       <c r="M7" s="20">
         <v>16</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>400</v>
       </c>
-      <c r="O7" t="s">
-        <v>228</v>
+      <c r="O7" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P7">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q7" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S7" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4587,7 +4593,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -4616,26 +4622,26 @@
       <c r="M8" s="20">
         <v>16</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>400</v>
       </c>
-      <c r="O8" t="s">
-        <v>228</v>
+      <c r="O8" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P8">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q8" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S8" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4649,7 +4655,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -4678,26 +4684,26 @@
       <c r="M9" s="20">
         <v>16</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>400</v>
       </c>
-      <c r="O9" t="s">
-        <v>228</v>
+      <c r="O9" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P9">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q9" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S9" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4711,7 +4717,7 @@
         <v>240</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -4740,26 +4746,26 @@
       <c r="M10" s="20">
         <v>16</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>400</v>
       </c>
-      <c r="O10" t="s">
-        <v>228</v>
+      <c r="O10" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P10">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q10" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S10" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4773,7 +4779,7 @@
         <v>241</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -4802,26 +4808,26 @@
       <c r="M11" s="20">
         <v>16</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>400</v>
       </c>
-      <c r="O11" t="s">
-        <v>228</v>
+      <c r="O11" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P11">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q11" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S11" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4835,7 +4841,7 @@
         <v>242</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -4864,26 +4870,26 @@
       <c r="M12" s="20">
         <v>16</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>400</v>
       </c>
-      <c r="O12" t="s">
-        <v>228</v>
+      <c r="O12" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P12">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q12" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S12" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4897,7 +4903,7 @@
         <v>243</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -4926,26 +4932,26 @@
       <c r="M13" s="20">
         <v>16</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>400</v>
       </c>
-      <c r="O13" t="s">
-        <v>228</v>
+      <c r="O13" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P13">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q13" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S13" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4959,7 +4965,7 @@
         <v>246</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -4988,26 +4994,26 @@
       <c r="M14" s="20">
         <v>16</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>400</v>
       </c>
-      <c r="O14" t="s">
-        <v>228</v>
+      <c r="O14" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P14">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q14" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S14" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5021,7 +5027,7 @@
         <v>247</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -5050,26 +5056,26 @@
       <c r="M15" s="20">
         <v>16</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>400</v>
       </c>
-      <c r="O15" t="s">
-        <v>228</v>
+      <c r="O15" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P15">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q15" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S15" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5083,7 +5089,7 @@
         <v>248</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -5112,26 +5118,26 @@
       <c r="M16" s="20">
         <v>16</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>400</v>
       </c>
-      <c r="O16" t="s">
-        <v>228</v>
+      <c r="O16" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P16">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q16" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S16" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5145,7 +5151,7 @@
         <v>249</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -5174,26 +5180,26 @@
       <c r="M17" s="20">
         <v>16</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>400</v>
       </c>
-      <c r="O17" t="s">
-        <v>228</v>
+      <c r="O17" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P17">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q17" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S17" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5207,7 +5213,7 @@
         <v>252</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -5236,26 +5242,26 @@
       <c r="M18" s="20">
         <v>16</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>400</v>
       </c>
-      <c r="O18" t="s">
-        <v>228</v>
+      <c r="O18" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P18">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q18" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S18" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5269,7 +5275,7 @@
         <v>253</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -5298,26 +5304,26 @@
       <c r="M19" s="20">
         <v>16</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>400</v>
       </c>
-      <c r="O19" t="s">
-        <v>228</v>
+      <c r="O19" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P19">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q19" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S19" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5331,7 +5337,7 @@
         <v>254</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -5360,26 +5366,26 @@
       <c r="M20" s="20">
         <v>16</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>400</v>
       </c>
-      <c r="O20" t="s">
-        <v>228</v>
+      <c r="O20" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P20">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q20" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S20" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5393,7 +5399,7 @@
         <v>255</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -5422,26 +5428,26 @@
       <c r="M21" s="20">
         <v>16</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>400</v>
       </c>
-      <c r="O21" t="s">
-        <v>228</v>
+      <c r="O21" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P21">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q21" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S21" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5455,7 +5461,7 @@
         <v>256</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -5484,26 +5490,26 @@
       <c r="M22" s="20">
         <v>16</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>400</v>
       </c>
-      <c r="O22" t="s">
-        <v>228</v>
+      <c r="O22" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P22">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q22" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S22" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5517,7 +5523,7 @@
         <v>257</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -5546,26 +5552,26 @@
       <c r="M23" s="20">
         <v>16</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>400</v>
       </c>
-      <c r="O23" t="s">
-        <v>228</v>
+      <c r="O23" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P23">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q23" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S23" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5579,7 +5585,7 @@
         <v>258</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -5608,26 +5614,26 @@
       <c r="M24" s="20">
         <v>16</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>400</v>
       </c>
-      <c r="O24" t="s">
-        <v>228</v>
+      <c r="O24" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P24">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q24" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S24" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5641,7 +5647,7 @@
         <v>261</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -5670,26 +5676,26 @@
       <c r="M25" s="20">
         <v>16</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>400</v>
       </c>
-      <c r="O25" t="s">
-        <v>228</v>
+      <c r="O25" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P25">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q25" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S25" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5703,7 +5709,7 @@
         <v>262</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -5732,26 +5738,26 @@
       <c r="M26" s="20">
         <v>16</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>400</v>
       </c>
-      <c r="O26" t="s">
-        <v>228</v>
+      <c r="O26" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P26">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q26" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S26" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5765,7 +5771,7 @@
         <v>263</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -5794,26 +5800,26 @@
       <c r="M27" s="20">
         <v>16</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>400</v>
       </c>
-      <c r="O27" t="s">
-        <v>228</v>
+      <c r="O27" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P27">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q27" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S27" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5827,7 +5833,7 @@
         <v>264</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -5856,26 +5862,26 @@
       <c r="M28" s="20">
         <v>16</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>400</v>
       </c>
-      <c r="O28" t="s">
-        <v>228</v>
+      <c r="O28" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P28">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q28" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S28" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5889,7 +5895,7 @@
         <v>265</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -5918,26 +5924,26 @@
       <c r="M29" s="20">
         <v>16</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>400</v>
       </c>
-      <c r="O29" t="s">
-        <v>228</v>
+      <c r="O29" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P29">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q29" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S29" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5951,7 +5957,7 @@
         <v>266</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -5980,26 +5986,26 @@
       <c r="M30" s="20">
         <v>16</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>400</v>
       </c>
-      <c r="O30" t="s">
-        <v>228</v>
+      <c r="O30" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P30">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q30" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S30" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6013,7 +6019,7 @@
         <v>267</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -6042,26 +6048,26 @@
       <c r="M31" s="20">
         <v>16</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>400</v>
       </c>
-      <c r="O31" t="s">
-        <v>228</v>
+      <c r="O31" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P31">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q31" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S31" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6075,7 +6081,7 @@
         <v>270</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -6104,26 +6110,26 @@
       <c r="M32" s="20">
         <v>16</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>400</v>
       </c>
-      <c r="O32" t="s">
-        <v>228</v>
+      <c r="O32" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P32">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q32" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S32" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6137,7 +6143,7 @@
         <v>271</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -6166,26 +6172,26 @@
       <c r="M33" s="20">
         <v>16</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>400</v>
       </c>
-      <c r="O33" t="s">
-        <v>228</v>
+      <c r="O33" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P33">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q33" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S33" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6199,7 +6205,7 @@
         <v>272</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -6228,26 +6234,26 @@
       <c r="M34" s="20">
         <v>16</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>400</v>
       </c>
-      <c r="O34" t="s">
-        <v>228</v>
+      <c r="O34" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P34">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q34" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S34" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6261,7 +6267,7 @@
         <v>273</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -6290,26 +6296,26 @@
       <c r="M35" s="20">
         <v>16</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <v>400</v>
       </c>
-      <c r="O35" t="s">
-        <v>228</v>
+      <c r="O35" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P35">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q35" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S35" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6323,7 +6329,7 @@
         <v>274</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -6352,26 +6358,26 @@
       <c r="M36" s="20">
         <v>16</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>400</v>
       </c>
-      <c r="O36" t="s">
-        <v>228</v>
+      <c r="O36" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P36">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q36" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S36" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6385,7 +6391,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -6414,26 +6420,26 @@
       <c r="M37" s="20">
         <v>16</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>400</v>
       </c>
-      <c r="O37" t="s">
-        <v>228</v>
+      <c r="O37" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P37">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q37" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S37" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6447,7 +6453,7 @@
         <v>276</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -6476,26 +6482,26 @@
       <c r="M38" s="20">
         <v>16</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <v>400</v>
       </c>
-      <c r="O38" t="s">
-        <v>228</v>
+      <c r="O38" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="P38">
-        <v>0.36</v>
+        <v>0.41142857142857142</v>
       </c>
       <c r="Q38" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S38" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Xen Jakaria/Regulator_Drafting_programme/Chadnumukha_input.xlsx
+++ b/Xen Jakaria/Regulator_Drafting_programme/Chadnumukha_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="291">
   <si>
     <t>Q</t>
   </si>
@@ -718,15 +718,15 @@
     <t>ODS-R1</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>d10</t>
   </si>
   <si>
     <t>ODS-R2</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>ODS-R3</t>
   </si>
   <si>
@@ -874,6 +874,12 @@
     <t>t_design_metric</t>
   </si>
   <si>
+    <t>As_no</t>
+  </si>
+  <si>
+    <t>As_no_text</t>
+  </si>
+  <si>
     <t>Aprovided(in^2)</t>
   </si>
   <si>
@@ -889,16 +895,19 @@
     <t>Rebar_txt_metric</t>
   </si>
   <si>
-    <t>d10 @ 4.0 inch c/c</t>
-  </si>
-  <si>
-    <t>d10 @ 100.0 mm c/c</t>
+    <t>2 No d10</t>
   </si>
   <si>
     <t>d10 @ 3.5 inch c/c</t>
   </si>
   <si>
     <t>d10 @ 85.0 mm c/c</t>
+  </si>
+  <si>
+    <t>3 No d10</t>
+  </si>
+  <si>
+    <t>4 No d10</t>
   </si>
 </sst>
 </file>
@@ -2545,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2612,16 +2621,16 @@
         <v>226</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>23198</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>3254</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <v>3000</v>
@@ -2639,7 +2648,7 @@
         <v>1.5</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2650,10 +2659,10 @@
         <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -2671,16 +2680,16 @@
         <v>60000</v>
       </c>
       <c r="J3" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L3" s="3">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2694,7 +2703,7 @@
         <v>230</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -2721,7 +2730,7 @@
         <v>3.5</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2735,7 +2744,7 @@
         <v>231</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -2762,7 +2771,7 @@
         <v>3.5</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2776,7 +2785,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -2803,7 +2812,7 @@
         <v>3.5</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2817,7 +2826,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -2844,7 +2853,7 @@
         <v>3.5</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2858,7 +2867,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2885,7 +2894,7 @@
         <v>3.5</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2899,7 +2908,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2926,7 +2935,7 @@
         <v>3.5</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2940,7 +2949,7 @@
         <v>240</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -2967,7 +2976,7 @@
         <v>3.5</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2981,7 +2990,7 @@
         <v>241</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -3008,7 +3017,7 @@
         <v>3.5</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3022,7 +3031,7 @@
         <v>242</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -3049,7 +3058,7 @@
         <v>3.5</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3063,7 +3072,7 @@
         <v>243</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -3090,7 +3099,7 @@
         <v>3.5</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3104,7 +3113,7 @@
         <v>246</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -3131,7 +3140,7 @@
         <v>3.5</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3145,7 +3154,7 @@
         <v>247</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -3172,7 +3181,7 @@
         <v>3.5</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3186,7 +3195,7 @@
         <v>248</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -3213,7 +3222,7 @@
         <v>3.5</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3227,7 +3236,7 @@
         <v>249</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -3254,7 +3263,7 @@
         <v>3.5</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3268,7 +3277,7 @@
         <v>252</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -3295,7 +3304,7 @@
         <v>3.5</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3309,7 +3318,7 @@
         <v>253</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -3336,7 +3345,7 @@
         <v>3.5</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3350,7 +3359,7 @@
         <v>254</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -3377,7 +3386,7 @@
         <v>3.5</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3391,7 +3400,7 @@
         <v>255</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -3418,7 +3427,7 @@
         <v>3.5</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3432,7 +3441,7 @@
         <v>256</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -3459,7 +3468,7 @@
         <v>3.5</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3473,7 +3482,7 @@
         <v>257</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -3500,7 +3509,7 @@
         <v>3.5</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3514,7 +3523,7 @@
         <v>258</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -3541,7 +3550,7 @@
         <v>3.5</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3555,7 +3564,7 @@
         <v>261</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -3582,7 +3591,7 @@
         <v>3.5</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3596,7 +3605,7 @@
         <v>262</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3623,7 +3632,7 @@
         <v>3.5</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3637,7 +3646,7 @@
         <v>263</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -3664,7 +3673,7 @@
         <v>3.5</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3678,7 +3687,7 @@
         <v>264</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -3705,7 +3714,7 @@
         <v>3.5</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3719,7 +3728,7 @@
         <v>265</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -3746,7 +3755,7 @@
         <v>3.5</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3760,7 +3769,7 @@
         <v>266</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3787,7 +3796,7 @@
         <v>3.5</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3801,7 +3810,7 @@
         <v>267</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -3828,7 +3837,7 @@
         <v>3.5</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3842,7 +3851,7 @@
         <v>270</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -3869,7 +3878,7 @@
         <v>3.5</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3883,7 +3892,7 @@
         <v>271</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -3910,7 +3919,7 @@
         <v>3.5</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3924,7 +3933,7 @@
         <v>272</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -3951,7 +3960,7 @@
         <v>3.5</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3965,7 +3974,7 @@
         <v>273</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3992,7 +4001,7 @@
         <v>3.5</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4006,7 +4015,7 @@
         <v>274</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -4033,7 +4042,7 @@
         <v>3.5</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4047,7 +4056,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -4074,7 +4083,7 @@
         <v>3.5</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4088,7 +4097,7 @@
         <v>276</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -4115,10 +4124,15 @@
         <v>3.5</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D38">
+      <formula1>"T,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4126,10 +4140,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4148,7 +4162,7 @@
     <col min="20" max="20" width="38.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
@@ -4209,8 +4223,14 @@
       <c r="T1" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>284</v>
+      </c>
+      <c r="V1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>224</v>
       </c>
@@ -4221,17 +4241,13 @@
         <v>226</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>23198</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3254</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="3">
         <v>3000</v>
       </c>
@@ -4248,31 +4264,37 @@
         <v>1.5</v>
       </c>
       <c r="M2" s="20">
-        <v>10.55</v>
+        <v>6</v>
       </c>
       <c r="N2" s="1">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P2">
-        <v>0.18</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>284</v>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.20571428571428571</v>
       </c>
       <c r="S2" s="1">
-        <v>100</v>
+        <v>3.5</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="U2" s="1">
+        <v>85</v>
+      </c>
+      <c r="V2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>224</v>
       </c>
@@ -4280,10 +4302,10 @@
         <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -4301,40 +4323,46 @@
         <v>60000</v>
       </c>
       <c r="J3" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L3" s="3">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="M3" s="20">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N3" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P3">
-        <v>0.41142857142857142</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>286</v>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.27428571428571419</v>
       </c>
       <c r="S3" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="1">
+        <v>85</v>
+      </c>
+      <c r="V3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>224</v>
       </c>
@@ -4345,7 +4373,7 @@
         <v>230</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -4378,25 +4406,31 @@
         <v>400</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R4" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S4" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="1">
+        <v>85</v>
+      </c>
+      <c r="V4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>224</v>
       </c>
@@ -4407,7 +4441,7 @@
         <v>231</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -4440,25 +4474,31 @@
         <v>400</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R5" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q5" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S5" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U5" s="1">
+        <v>85</v>
+      </c>
+      <c r="V5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>232</v>
       </c>
@@ -4469,7 +4509,7 @@
         <v>234</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -4502,25 +4542,31 @@
         <v>400</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R6" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q6" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S6" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="1">
+        <v>85</v>
+      </c>
+      <c r="V6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>232</v>
       </c>
@@ -4531,7 +4577,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -4564,25 +4610,31 @@
         <v>400</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R7" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q7" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S7" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U7" s="1">
+        <v>85</v>
+      </c>
+      <c r="V7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>232</v>
       </c>
@@ -4593,7 +4645,7 @@
         <v>236</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -4626,25 +4678,31 @@
         <v>400</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R8" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q8" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S8" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="1">
+        <v>85</v>
+      </c>
+      <c r="V8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>232</v>
       </c>
@@ -4655,7 +4713,7 @@
         <v>237</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -4688,25 +4746,31 @@
         <v>400</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R9" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q9" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S9" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="1">
+        <v>85</v>
+      </c>
+      <c r="V9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>238</v>
       </c>
@@ -4717,7 +4781,7 @@
         <v>240</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -4750,25 +4814,31 @@
         <v>400</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R10" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q10" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S10" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U10" s="1">
+        <v>85</v>
+      </c>
+      <c r="V10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>238</v>
       </c>
@@ -4779,7 +4849,7 @@
         <v>241</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -4812,25 +4882,31 @@
         <v>400</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R11" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q11" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S11" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U11" s="1">
+        <v>85</v>
+      </c>
+      <c r="V11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>238</v>
       </c>
@@ -4841,7 +4917,7 @@
         <v>242</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -4874,25 +4950,31 @@
         <v>400</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R12" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q12" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S12" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="1">
+        <v>85</v>
+      </c>
+      <c r="V12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>238</v>
       </c>
@@ -4903,7 +4985,7 @@
         <v>243</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -4936,25 +5018,31 @@
         <v>400</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R13" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q13" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S13" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="1">
+        <v>85</v>
+      </c>
+      <c r="V13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>244</v>
       </c>
@@ -4965,7 +5053,7 @@
         <v>246</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -4998,25 +5086,31 @@
         <v>400</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R14" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q14" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S14" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="1">
+        <v>85</v>
+      </c>
+      <c r="V14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>244</v>
       </c>
@@ -5027,7 +5121,7 @@
         <v>247</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -5060,25 +5154,31 @@
         <v>400</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R15" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q15" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S15" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U15" s="1">
+        <v>85</v>
+      </c>
+      <c r="V15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>244</v>
       </c>
@@ -5089,7 +5189,7 @@
         <v>248</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -5122,25 +5222,31 @@
         <v>400</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R16" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q16" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S16" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="1">
+        <v>85</v>
+      </c>
+      <c r="V16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>244</v>
       </c>
@@ -5151,7 +5257,7 @@
         <v>249</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -5184,25 +5290,31 @@
         <v>400</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R17" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q17" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S17" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U17" s="1">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>250</v>
       </c>
@@ -5213,7 +5325,7 @@
         <v>252</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -5246,25 +5358,31 @@
         <v>400</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R18" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q18" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S18" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="1">
+        <v>85</v>
+      </c>
+      <c r="V18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>250</v>
       </c>
@@ -5275,7 +5393,7 @@
         <v>253</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -5308,25 +5426,31 @@
         <v>400</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R19" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q19" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S19" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="1">
+        <v>85</v>
+      </c>
+      <c r="V19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>250</v>
       </c>
@@ -5337,7 +5461,7 @@
         <v>254</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -5370,25 +5494,31 @@
         <v>400</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R20" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q20" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S20" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="1">
+        <v>85</v>
+      </c>
+      <c r="V20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>250</v>
       </c>
@@ -5399,7 +5529,7 @@
         <v>255</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -5432,25 +5562,31 @@
         <v>400</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R21" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q21" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S21" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="1">
+        <v>85</v>
+      </c>
+      <c r="V21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>250</v>
       </c>
@@ -5461,7 +5597,7 @@
         <v>256</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -5494,25 +5630,31 @@
         <v>400</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R22" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q22" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S22" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="1">
+        <v>85</v>
+      </c>
+      <c r="V22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>250</v>
       </c>
@@ -5523,7 +5665,7 @@
         <v>257</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -5556,25 +5698,31 @@
         <v>400</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R23" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q23" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S23" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="1">
+        <v>85</v>
+      </c>
+      <c r="V23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>250</v>
       </c>
@@ -5585,7 +5733,7 @@
         <v>258</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -5618,25 +5766,31 @@
         <v>400</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R24" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q24" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S24" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="1">
+        <v>85</v>
+      </c>
+      <c r="V24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>259</v>
       </c>
@@ -5647,7 +5801,7 @@
         <v>261</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -5680,25 +5834,31 @@
         <v>400</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R25" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q25" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S25" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="1">
+        <v>85</v>
+      </c>
+      <c r="V25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>259</v>
       </c>
@@ -5709,7 +5869,7 @@
         <v>262</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -5742,25 +5902,31 @@
         <v>400</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R26" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q26" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S26" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="1">
+        <v>85</v>
+      </c>
+      <c r="V26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>259</v>
       </c>
@@ -5771,7 +5937,7 @@
         <v>263</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -5804,25 +5970,31 @@
         <v>400</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R27" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q27" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S27" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U27" s="1">
+        <v>85</v>
+      </c>
+      <c r="V27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>259</v>
       </c>
@@ -5833,7 +6005,7 @@
         <v>264</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -5866,25 +6038,31 @@
         <v>400</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R28" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q28" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S28" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="1">
+        <v>85</v>
+      </c>
+      <c r="V28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>259</v>
       </c>
@@ -5895,7 +6073,7 @@
         <v>265</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -5928,25 +6106,31 @@
         <v>400</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R29" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q29" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S29" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="1">
+        <v>85</v>
+      </c>
+      <c r="V29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>259</v>
       </c>
@@ -5957,7 +6141,7 @@
         <v>266</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -5990,25 +6174,31 @@
         <v>400</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R30" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q30" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S30" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="1">
+        <v>85</v>
+      </c>
+      <c r="V30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>259</v>
       </c>
@@ -6019,7 +6209,7 @@
         <v>267</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -6052,25 +6242,31 @@
         <v>400</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R31" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q31" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S31" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U31" s="1">
+        <v>85</v>
+      </c>
+      <c r="V31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>268</v>
       </c>
@@ -6081,7 +6277,7 @@
         <v>270</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -6114,25 +6310,31 @@
         <v>400</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R32" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q32" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S32" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="1">
+        <v>85</v>
+      </c>
+      <c r="V32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>268</v>
       </c>
@@ -6143,7 +6345,7 @@
         <v>271</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -6176,25 +6378,31 @@
         <v>400</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R33" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q33" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S33" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U33" s="1">
+        <v>85</v>
+      </c>
+      <c r="V33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>268</v>
       </c>
@@ -6205,7 +6413,7 @@
         <v>272</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -6238,25 +6446,31 @@
         <v>400</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R34" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q34" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S34" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U34" s="1">
+        <v>85</v>
+      </c>
+      <c r="V34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>268</v>
       </c>
@@ -6267,7 +6481,7 @@
         <v>273</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -6300,25 +6514,31 @@
         <v>400</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R35" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q35" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S35" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U35" s="1">
+        <v>85</v>
+      </c>
+      <c r="V35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>268</v>
       </c>
@@ -6329,7 +6549,7 @@
         <v>274</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -6362,25 +6582,31 @@
         <v>400</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R36" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q36" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S36" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U36" s="1">
+        <v>85</v>
+      </c>
+      <c r="V36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>268</v>
       </c>
@@ -6391,7 +6617,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -6424,25 +6650,31 @@
         <v>400</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R37" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q37" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S37" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U37" s="1">
+        <v>85</v>
+      </c>
+      <c r="V37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>268</v>
       </c>
@@ -6453,7 +6685,7 @@
         <v>276</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -6486,22 +6718,28 @@
         <v>400</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R38" s="1">
         <v>0.41142857142857142</v>
       </c>
-      <c r="Q38" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="S38" s="1">
-        <v>85</v>
+        <v>3.5</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>287</v>
+      </c>
+      <c r="U38" s="1">
+        <v>85</v>
+      </c>
+      <c r="V38" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
